--- a/experiment_results/SBFL_ONLY/ZipMe/1Bug.xlsx
+++ b/experiment_results/SBFL_ONLY/ZipMe/1Bug.xlsx
@@ -28,7 +28,7 @@
     <sheet name="Dice" sheetId="19" r:id="rId19"/>
     <sheet name="Humman" sheetId="20" r:id="rId20"/>
     <sheet name="Wong2" sheetId="21" r:id="rId21"/>
-    <sheet name="Wong3" sheetId="22" r:id="rId22"/>
+    <sheet name="Euclid" sheetId="22" r:id="rId22"/>
     <sheet name="Zoltar" sheetId="23" r:id="rId23"/>
     <sheet name="Rogot2" sheetId="24" r:id="rId24"/>
     <sheet name="Hamming" sheetId="25" r:id="rId25"/>
@@ -14521,10 +14521,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>2092</v>
       </c>
       <c r="D3">
-        <v>0.3019844693701467</v>
+        <v>90.25021570319241</v>
       </c>
       <c r="E3">
         <v>2318</v>
@@ -14555,10 +14555,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>74</v>
+        <v>2179</v>
       </c>
       <c r="D5">
-        <v>3.192407247627265</v>
+        <v>94.00345125107852</v>
       </c>
       <c r="E5">
         <v>2318</v>
@@ -14589,10 +14589,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>1898</v>
       </c>
       <c r="D7">
-        <v>1.337359792924935</v>
+        <v>81.88093183779121</v>
       </c>
       <c r="E7">
         <v>2318</v>
@@ -14640,10 +14640,10 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>2179</v>
       </c>
       <c r="D10">
-        <v>0.3882657463330457</v>
+        <v>94.00345125107852</v>
       </c>
       <c r="E10">
         <v>2318</v>
@@ -14691,10 +14691,10 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>1716</v>
       </c>
       <c r="D13">
-        <v>0.04314063848144953</v>
+        <v>74.02933563416738</v>
       </c>
       <c r="E13">
         <v>2318</v>
@@ -14725,10 +14725,10 @@
         <v>32</v>
       </c>
       <c r="C15">
-        <v>57</v>
+        <v>2146</v>
       </c>
       <c r="D15">
-        <v>2.459016393442623</v>
+        <v>92.57981018119068</v>
       </c>
       <c r="E15">
         <v>2318</v>
@@ -14776,10 +14776,10 @@
         <v>38</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>1576</v>
       </c>
       <c r="D18">
-        <v>0.1288659793814433</v>
+        <v>67.69759450171821</v>
       </c>
       <c r="E18">
         <v>2328</v>
@@ -14793,10 +14793,10 @@
         <v>40</v>
       </c>
       <c r="C19">
-        <v>1218</v>
+        <v>2073</v>
       </c>
       <c r="D19">
-        <v>52.54529767040552</v>
+        <v>89.43054357204487</v>
       </c>
       <c r="E19">
         <v>2318</v>
@@ -14810,10 +14810,10 @@
         <v>42</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>1929</v>
       </c>
       <c r="D20">
-        <v>0.3017241379310345</v>
+        <v>83.14655172413794</v>
       </c>
       <c r="E20">
         <v>2320</v>
@@ -14895,10 +14895,10 @@
         <v>52</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2141</v>
       </c>
       <c r="D25">
-        <v>0.04314063848144953</v>
+        <v>92.36410698878343</v>
       </c>
       <c r="E25">
         <v>2318</v>
@@ -14946,10 +14946,10 @@
         <v>58</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>2132</v>
       </c>
       <c r="D28">
-        <v>0.1725625539257981</v>
+        <v>91.97584124245039</v>
       </c>
       <c r="E28">
         <v>2318</v>
@@ -14963,10 +14963,10 @@
         <v>60</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>1572</v>
       </c>
       <c r="D29">
-        <v>0.1298139333621809</v>
+        <v>68.02250108178278</v>
       </c>
       <c r="E29">
         <v>2311</v>
@@ -14980,10 +14980,10 @@
         <v>62</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>1973</v>
       </c>
       <c r="D30">
-        <v>0.1718213058419244</v>
+        <v>84.75085910652921</v>
       </c>
       <c r="E30">
         <v>2328</v>
@@ -15031,10 +15031,10 @@
         <v>68</v>
       </c>
       <c r="C33">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>2.013710368466152</v>
+        <v>0.7712082262210797</v>
       </c>
       <c r="E33">
         <v>2334</v>
@@ -15048,10 +15048,10 @@
         <v>70</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>0.0429553264604811</v>
+        <v>0.0859106529209622</v>
       </c>
       <c r="E34">
         <v>2328</v>
@@ -15065,10 +15065,10 @@
         <v>72</v>
       </c>
       <c r="C35">
-        <v>1237</v>
+        <v>1914</v>
       </c>
       <c r="D35">
-        <v>53.13573883161512</v>
+        <v>82.21649484536083</v>
       </c>
       <c r="E35">
         <v>2328</v>
@@ -15082,10 +15082,10 @@
         <v>74</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>2164</v>
       </c>
       <c r="D36">
-        <v>0.3451251078515962</v>
+        <v>93.35634167385678</v>
       </c>
       <c r="E36">
         <v>2318</v>
@@ -15184,10 +15184,10 @@
         <v>86</v>
       </c>
       <c r="C42">
-        <v>71</v>
+        <v>2148</v>
       </c>
       <c r="D42">
-        <v>3.062985332182916</v>
+        <v>92.66609145815357</v>
       </c>
       <c r="E42">
         <v>2318</v>
@@ -15201,10 +15201,10 @@
         <v>88</v>
       </c>
       <c r="C43">
-        <v>37</v>
+        <v>1793</v>
       </c>
       <c r="D43">
-        <v>1.596203623813633</v>
+        <v>77.35116479723901</v>
       </c>
       <c r="E43">
         <v>2318</v>
@@ -15252,10 +15252,10 @@
         <v>94</v>
       </c>
       <c r="C46">
-        <v>1270</v>
+        <v>2185</v>
       </c>
       <c r="D46">
-        <v>54.7886108714409</v>
+        <v>94.26229508196722</v>
       </c>
       <c r="E46">
         <v>2318</v>
@@ -15320,10 +15320,10 @@
         <v>102</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1789</v>
       </c>
       <c r="D50">
-        <v>0.08628127696289906</v>
+        <v>77.17860224331319</v>
       </c>
       <c r="E50">
         <v>2318</v>
@@ -15439,10 +15439,10 @@
         <v>116</v>
       </c>
       <c r="C57">
-        <v>1218</v>
+        <v>2072</v>
       </c>
       <c r="D57">
-        <v>52.54529767040552</v>
+        <v>89.38740293356342</v>
       </c>
       <c r="E57">
         <v>2318</v>
